--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,6 +821,222 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://example.com/silph</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>refusal-to-admit</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Refusal to admit</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>ServiceRequest.orderDetail</t>
   </si>
   <si>
@@ -950,9 +1166,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1038,7 +1251,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
 </t>
   </si>
   <si>
@@ -1339,10 +1552,6 @@
   </si>
   <si>
     <t>ServiceRequest.patientInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Patient or consumer-oriented instructions</t>
@@ -1703,7 +1912,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1713,7 +1922,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1740,7 +1949,7 @@
     <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4221,7 +4430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>247</v>
       </c>
@@ -4234,13 +4443,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4347,14 +4556,14 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4363,10 +4572,10 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>261</v>
@@ -4374,9 +4583,7 @@
       <c r="M23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4401,77 +4608,77 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4480,21 +4687,21 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>269</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4530,40 +4737,40 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -4572,12 +4779,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4591,7 +4798,7 @@
         <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
@@ -4600,16 +4807,20 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4657,13 +4868,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -4672,31 +4883,31 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4706,22 +4917,22 @@
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4772,7 +4983,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4784,41 +4995,41 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -4827,18 +5038,20 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -4875,58 +5088,58 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4936,7 +5149,7 @@
         <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -4945,16 +5158,20 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>307</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -4963,7 +5180,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5002,7 +5219,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5017,27 +5234,27 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>304</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5060,15 +5277,17 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5093,13 +5312,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5117,7 +5336,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5135,28 +5354,28 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5175,16 +5394,18 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5193,7 +5414,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5232,7 +5453,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5247,31 +5468,31 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>323</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5290,18 +5511,18 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5310,7 +5531,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5349,7 +5570,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5364,31 +5585,31 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5407,18 +5628,20 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5442,13 +5665,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5466,7 +5689,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5481,16 +5704,16 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5498,21 +5721,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5524,18 +5747,20 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5583,13 +5808,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5598,16 +5823,16 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5615,14 +5840,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5644,12 +5869,14 @@
         <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5677,10 +5904,10 @@
         <v>223</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -5698,7 +5925,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5707,7 +5934,7 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>103</v>
@@ -5716,24 +5943,24 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5744,7 +5971,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5756,16 +5983,18 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -5813,13 +6042,13 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
@@ -5831,24 +6060,24 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5856,13 +6085,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -5871,17 +6100,15 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -5906,13 +6133,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -5930,13 +6157,13 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
@@ -5945,41 +6172,41 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
@@ -5988,17 +6215,15 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6047,13 +6272,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6062,38 +6287,38 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>365</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6102,16 +6327,16 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6150,25 +6375,23 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6177,38 +6400,40 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>92</v>
@@ -6217,20 +6442,18 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6279,13 +6502,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -6294,27 +6517,27 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6325,7 +6548,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6337,17 +6560,15 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6372,13 +6593,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6396,13 +6617,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6414,35 +6635,35 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6454,20 +6675,16 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6491,13 +6708,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6515,13 +6732,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6530,58 +6747,60 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>390</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>416</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>51</v>
+        <v>398</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6630,13 +6849,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6645,31 +6864,31 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>267</v>
+        <v>402</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6688,15 +6907,17 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>424</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6721,13 +6942,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -6745,7 +6966,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6760,16 +6981,16 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6777,14 +6998,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6800,19 +7021,19 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6862,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6877,23 +7098,1302 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="L46" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO44" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO44">
+  <autoFilter ref="A1:AO55">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6903,7 +8403,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -791,10 +791,10 @@
 </t>
   </si>
   <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+    <t>Refusal to admit code</t>
+  </si>
+  <si>
+    <t>Code identifying a refusal-to-admit service/request.</t>
   </si>
   <si>
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1457,7 +1457,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-healthcare-service|https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-organization|urn://example.com/ph-core/fhir/StructureDefinition/ph-core-organization|urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-organization|urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
 </t>
   </si>
   <si>
@@ -1931,7 +1931,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety ServiceRequest</t>
+    <t>RS ServiceRequest</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -948,9 +948,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>refusal-to-admit</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -5411,46 +5408,46 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5468,10 +5465,10 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5482,10 +5479,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5511,14 +5508,14 @@
         <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5528,46 +5525,46 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5585,10 +5582,10 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
@@ -5599,10 +5596,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5628,16 +5625,16 @@
         <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5686,7 +5683,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5704,10 +5701,10 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
@@ -5718,10 +5715,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5747,16 +5744,16 @@
         <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5805,7 +5802,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5823,10 +5820,10 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -5837,14 +5834,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5866,13 +5863,13 @@
         <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5901,11 +5898,11 @@
         <v>223</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5922,7 +5919,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5931,7 +5928,7 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>103</v>
@@ -5940,7 +5937,7 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>256</v>
@@ -5954,10 +5951,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5980,17 +5977,17 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6039,7 +6036,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6057,10 +6054,10 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6071,10 +6068,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6097,13 +6094,13 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6154,7 +6151,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>91</v>
@@ -6169,31 +6166,31 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6212,13 +6209,13 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6269,7 +6266,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6284,31 +6281,31 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6327,13 +6324,13 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6372,7 +6369,7 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
@@ -6382,7 +6379,7 @@
         <v>269</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6397,33 +6394,33 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="D39" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6442,13 +6439,13 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6499,7 +6496,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6514,27 +6511,27 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6557,13 +6554,13 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6593,11 +6590,11 @@
         <v>223</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6635,25 +6632,25 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6672,13 +6669,13 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6729,7 +6726,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6744,31 +6741,31 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6787,16 +6784,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6846,7 +6843,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6861,31 +6858,31 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>404</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6907,13 +6904,13 @@
         <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6942,11 +6939,11 @@
         <v>223</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
@@ -6963,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6978,16 +6975,16 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6995,14 +6992,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7021,16 +7018,16 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7080,7 +7077,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7095,16 +7092,16 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>424</v>
-      </c>
       <c r="AN44" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7112,10 +7109,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7141,10 +7138,10 @@
         <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7174,11 +7171,11 @@
         <v>223</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7216,10 +7213,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7227,10 +7224,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7253,13 +7250,13 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7310,7 +7307,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7331,10 +7328,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7342,10 +7339,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7371,13 +7368,13 @@
         <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7406,11 +7403,11 @@
         <v>223</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7427,7 +7424,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7442,16 +7439,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7459,10 +7456,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7485,16 +7482,16 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7544,7 +7541,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7559,16 +7556,16 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AM48" t="s" s="2">
-        <v>452</v>
-      </c>
       <c r="AN48" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7576,10 +7573,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7602,13 +7599,13 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7659,7 +7656,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7674,13 +7671,13 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
@@ -7691,14 +7688,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7717,16 +7714,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7776,7 +7773,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7791,13 +7788,13 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -7808,10 +7805,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7834,16 +7831,16 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7893,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7911,10 +7908,10 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -7925,14 +7922,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7954,16 +7951,16 @@
         <v>218</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -7991,11 +7988,11 @@
         <v>223</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8012,7 +8009,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8030,24 +8027,24 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8070,13 +8067,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>51</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8127,7 +8124,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8142,27 +8139,27 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>491</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8188,10 +8185,10 @@
         <v>260</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8242,7 +8239,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8260,10 +8257,10 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8274,10 +8271,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8300,16 +8297,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8359,7 +8356,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8374,13 +8371,13 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,13 +632,16 @@
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
+    <t>Refusal-to-admit request is revoked</t>
+  </si>
+  <si>
+    <t>Indicates the refusal-to-admit request has been revoked in accordance with the run report form response.</t>
   </si>
   <si>
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>revoked</t>
   </si>
   <si>
     <t>required</t>
@@ -791,10 +794,10 @@
 </t>
   </si>
   <si>
-    <t>Refusal to admit code</t>
-  </si>
-  <si>
-    <t>Code identifying a refusal-to-admit service/request.</t>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
   </si>
   <si>
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
@@ -821,731 +824,573 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
-    <t>ServiceRequest.code.id</t>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient associated with the refusal-to-admit record</t>
+  </si>
+  <si>
+    <t>Identifies the patient involved in the encounter where refusal to admit was reported.</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.subject</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter linked to the refusal-to-admit workflow</t>
+  </si>
+  <si>
+    <t>Reference to the encounter associated with the refusal-to-admit request as captured on the run report form.</t>
+  </si>
+  <si>
+    <t>Request.encounter</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>TQ1/TQ2, OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date of refusal-to-admit record</t>
+  </si>
+  <si>
+    <t>Date recorded on the run report form when the refusal-to-admit decision was logged.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
+  </si>
+  <si>
+    <t>Proposal.prnReason.reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>ORC.9,  RF1-7 / RF1-9</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Proposal.proposedAtTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>ORC.12, PRT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementAuthor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>PRT, RF!-3</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|HealthcareService|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>PRT, Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.reasonCode</t>
+  </si>
+  <si>
+    <t>ORC.16, RF1-10</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for service or service</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>ORC.16</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>Request.insurance</t>
+  </si>
+  <si>
+    <t>IN1/IN2</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COVBY].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Context references for refusal-to-admit decision</t>
+  </si>
+  <si>
+    <t>Supporting references, including the hospital and physician noted on the run report form.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:$this.resolve()}
+</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>Accompanying segments</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo:reportingOrganization</t>
+  </si>
+  <si>
+    <t>reportingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-organization)
+</t>
+  </si>
+  <si>
+    <t>Hospital noted on the run report form</t>
+  </si>
+  <si>
+    <t>Reference to the organization (hospital) listed under 'Refusal to Admit - Hospital'.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo:contactPractitioner</t>
+  </si>
+  <si>
+    <t>contactPractitioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
+</t>
+  </si>
+  <si>
+    <t>Physician noted on the run report form</t>
+  </si>
+  <si>
+    <t>Reference to the practitioner listed under 'Refusal to Admit - Physician'.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SPC].role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>Request.note</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.additionalText</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Refusal to admit</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed instructions
-</t>
-  </si>
-  <si>
-    <t>Additional order information</t>
-  </si>
-  <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
-  </si>
-  <si>
-    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>Codified order entry details which are based on order context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prr-1
-</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-RatioRange</t>
-  </si>
-  <si>
-    <t>Service amount</t>
-  </si>
-  <si>
-    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
-  </si>
-  <si>
-    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>ServiceRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-patient)
-</t>
-  </si>
-  <si>
-    <t>Individual or Entity the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>ServiceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>Request.encounter</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.encounter</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>TQ1/TQ2, OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Preconditions for service</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
-  </si>
-  <si>
-    <t>Proposal.prnReason.reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>ORC.9,  RF1-7 / RF1-9</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Proposal.proposedAtTime</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>ORC.12, PRT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementAuthor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialty
-</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the requested service.</t>
-  </si>
-  <si>
-    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>PRT, RF!-3</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">request recipient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|HealthcareService|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Requested performer</t>
-  </si>
-  <si>
-    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
-  </si>
-  <si>
-    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>PRT, Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationCode</t>
-  </si>
-  <si>
-    <t>Requested location</t>
-  </si>
-  <si>
-    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>A location type where services are delivered.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for procedure or service</t>
-  </si>
-  <si>
-    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.reasonCode</t>
-  </si>
-  <si>
-    <t>ORC.16, RF1-10</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for service or service</t>
-  </si>
-  <si>
-    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>ORC.16</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Associated insurance coverage</t>
-  </si>
-  <si>
-    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
-  </si>
-  <si>
-    <t>Request.insurance</t>
-  </si>
-  <si>
-    <t>IN1/IN2</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COVBY].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t>Ask at order entry question
-AOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-organization|urn://example.com/ph-core/fhir/StructureDefinition/ph-core-practitioner)
-</t>
-  </si>
-  <si>
-    <t>Additional clinical information</t>
-  </si>
-  <si>
-    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
-  </si>
-  <si>
-    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>Accompanying segments</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Procedure Samples</t>
-  </si>
-  <si>
-    <t>One or more specimens that the laboratory procedure will use.</t>
-  </si>
-  <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SPC].role</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location
-</t>
-  </si>
-  <si>
-    <t>Location on Body</t>
-  </si>
-  <si>
-    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
-  </si>
-  <si>
-    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
-  </si>
-  <si>
-    <t>Request.note</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.additionalText</t>
-  </si>
-  <si>
-    <t>ServiceRequest.patientInstruction</t>
   </si>
   <si>
     <t>Patient or consumer-oriented instructions</t>
@@ -1906,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1915,9 +1760,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="42.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.23828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1925,7 +1770,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1943,7 +1788,7 @@
     <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3881,7 +3726,7 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>82</v>
@@ -3896,13 +3741,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3935,27 +3780,27 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3981,13 +3826,13 @@
         <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4013,13 +3858,13 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -4037,7 +3882,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>91</v>
@@ -4052,16 +3897,16 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4069,10 +3914,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4095,19 +3940,19 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4132,13 +3977,13 @@
         <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>82</v>
@@ -4156,7 +4001,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4174,13 +4019,13 @@
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4188,10 +4033,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4217,10 +4062,10 @@
         <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4228,7 +4073,7 @@
         <v>82</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>82</v>
@@ -4249,13 +4094,13 @@
         <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>82</v>
@@ -4273,7 +4118,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4288,16 +4133,16 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4305,10 +4150,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4331,70 +4176,70 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4409,13 +4254,13 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4424,26 +4269,26 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4452,16 +4297,16 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4487,13 +4332,13 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4511,7 +4356,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4526,38 +4371,38 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4566,18 +4411,20 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4602,13 +4449,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4626,53 +4473,53 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -4681,21 +4528,21 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4731,40 +4578,40 @@
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -4773,12 +4620,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4792,7 +4639,7 @@
         <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
@@ -4801,20 +4648,16 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4862,13 +4705,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -4877,31 +4720,31 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4911,22 +4754,22 @@
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4977,7 +4820,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4989,41 +4832,41 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5032,20 +4875,18 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5082,58 +4923,58 @@
         <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5143,7 +4984,7 @@
         <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5152,20 +4993,16 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5213,7 +5050,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5228,27 +5065,27 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>82</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5271,17 +5108,15 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5306,13 +5141,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5330,7 +5165,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5348,28 +5183,28 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5388,18 +5223,16 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5447,7 +5280,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5462,31 +5295,31 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>82</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>82</v>
+        <v>329</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5505,18 +5338,18 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5525,7 +5358,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5564,7 +5397,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5579,31 +5412,31 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>82</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5622,20 +5455,18 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5659,13 +5490,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5683,7 +5514,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5698,16 +5529,16 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -5715,21 +5546,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5741,20 +5572,18 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5802,13 +5631,13 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
@@ -5817,16 +5646,16 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5834,14 +5663,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5860,17 +5689,15 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5895,13 +5722,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -5919,7 +5746,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5928,7 +5755,7 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>103</v>
@@ -5937,24 +5764,24 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>258</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5965,7 +5792,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5977,18 +5804,16 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6036,13 +5861,13 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
@@ -6054,24 +5879,24 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6079,13 +5904,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6094,15 +5919,17 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6127,13 +5954,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6151,13 +5978,13 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
@@ -6166,41 +5993,41 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>351</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
@@ -6209,15 +6036,17 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6266,13 +6095,13 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
@@ -6281,38 +6110,38 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>361</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6321,16 +6150,16 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6369,23 +6198,25 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6394,40 +6225,38 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>92</v>
@@ -6436,18 +6265,20 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6484,25 +6315,23 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -6511,35 +6340,37 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>91</v>
@@ -6551,18 +6382,20 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6587,13 +6420,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6611,13 +6444,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6626,35 +6459,37 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6666,18 +6501,20 @@
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6726,13 +6563,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6741,41 +6578,41 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>82</v>
@@ -6784,16 +6621,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6843,13 +6680,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6858,38 +6695,38 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>399</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6901,18 +6738,20 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
@@ -6936,13 +6775,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -6960,13 +6799,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -6975,31 +6814,31 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7015,20 +6854,18 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>418</v>
+        <v>51</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7077,7 +6914,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7092,27 +6929,27 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>422</v>
+        <v>268</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7123,7 +6960,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7135,13 +6972,13 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>439</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7168,13 +7005,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7192,13 +7029,13 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
@@ -7210,13 +7047,13 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7224,10 +7061,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7247,18 +7084,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7307,7 +7146,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7322,1072 +7161,23 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO55" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO55">
+  <autoFilter ref="A1:AO46">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8397,7 +7187,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-service-request.xlsx
+++ b/StructureDefinition-rs-service-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
